--- a/biology/Zoologie/Gonorynchiformes/Gonorynchiformes.xlsx
+++ b/biology/Zoologie/Gonorynchiformes/Gonorynchiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gonorynchiformes sont un ordre de poissons à nageoires rayonnées.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Gonorynchiformes sont caractérisés par :
 une absence totale de dents ;
@@ -545,7 +559,9 @@
           <t>Système de défense</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand la peau du Gonorynchiforme est déchirée, c'est-à-dire quand celui-ci est blessé, elle dégage une substance qui se dissout dans l'eau et que les autres poissons aux alentours peuvent détecter. Cette substance agit donc comme un signal d'alarme qui prévient les autres poissons en cas de danger.
 </t>
@@ -576,9 +592,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après World Register of Marine Species                               (2 mai 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (2 mai 2016) :
 sous-ordre Chanoidei
 famille Chanidae Günther, 1868 (dont le chanos)
 sous-ordre Gonorynchoidei
